--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -342,7 +342,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -624,11 +624,11 @@
       </c>
       <c r="B14" s="13" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C14" s="13" t="n">
         <f aca="false">(B14*40)/B10</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D14" s="14" t="n">
         <v>0</v>
@@ -638,11 +638,11 @@
       </c>
       <c r="F14" s="15" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>50</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
   <si>
     <t xml:space="preserve">H 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 06</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -206,8 +215,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -342,7 +351,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,9 +376,15 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -389,9 +404,15 @@
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -410,9 +431,16 @@
       <c r="B3" s="4" t="n">
         <v>9.5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="4" t="n">
+        <f aca="false">(12/17)*10</f>
+        <v>7.05882352941177</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -431,9 +459,16 @@
       <c r="B4" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="4" t="n">
+        <f aca="false">(16/17)*10</f>
+        <v>9.41176470588235</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -452,9 +487,15 @@
       <c r="B5" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -473,9 +514,16 @@
       <c r="B6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="4" t="n">
+        <f aca="false">(15/17)*10</f>
+        <v>8.82352941176471</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -494,9 +542,16 @@
       <c r="B7" s="4" t="n">
         <v>9.5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="4" t="n">
+        <f aca="false">(17/17)*10</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -515,9 +570,16 @@
       <c r="B8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="4" t="n">
+        <f aca="false">(15/17)*10</f>
+        <v>8.82352941176471</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -530,31 +592,29 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -563,7 +623,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -573,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,11 +684,11 @@
       </c>
       <c r="B14" s="13" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>9.5</v>
+        <v>37.5588235294118</v>
       </c>
       <c r="C14" s="13" t="n">
         <f aca="false">(B14*40)/B10</f>
-        <v>38</v>
+        <v>37.5588235294118</v>
       </c>
       <c r="D14" s="14" t="n">
         <v>0</v>
@@ -638,11 +698,11 @@
       </c>
       <c r="F14" s="15" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>38</v>
+        <v>37.5588235294118</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>97.5</v>
+        <v>98.2615268329554</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,11 +711,11 @@
       </c>
       <c r="B15" s="13" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>10</v>
+        <v>38.9117647058824</v>
       </c>
       <c r="C15" s="13" t="n">
         <f aca="false">(B15*40)/B10</f>
-        <v>40</v>
+        <v>38.9117647058824</v>
       </c>
       <c r="D15" s="14" t="n">
         <v>0</v>
@@ -665,7 +725,7 @@
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>40</v>
+        <v>38.9117647058824</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">((F15-F21)*50)/(F22-F21)+50</f>
@@ -678,11 +738,11 @@
       </c>
       <c r="B16" s="13" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D16" s="14" t="n">
         <v>0</v>
@@ -692,11 +752,11 @@
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
-        <v>100</v>
+        <v>75.6991685563114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,11 +765,11 @@
       </c>
       <c r="B17" s="13" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>8</v>
+        <v>36.3235294117647</v>
       </c>
       <c r="C17" s="13" t="n">
         <f aca="false">(B17*40)/B10</f>
-        <v>32</v>
+        <v>36.3235294117647</v>
       </c>
       <c r="D17" s="14" t="n">
         <v>0</v>
@@ -719,11 +779,11 @@
       </c>
       <c r="F17" s="15" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>32</v>
+        <v>36.3235294117647</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
-        <v>90</v>
+        <v>96.6742252456538</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,11 +792,11 @@
       </c>
       <c r="B18" s="13" t="n">
         <f aca="false">SUM(B7:L7)</f>
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="C18" s="13" t="n">
         <f aca="false">(B18*40)/B10</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D18" s="14" t="n">
         <v>0</v>
@@ -746,11 +806,11 @@
       </c>
       <c r="F18" s="15" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18" s="16" t="n">
         <f aca="false">((F18-F21)*50)/(F22-F21)+50</f>
-        <v>97.5</v>
+        <v>93.6885865457294</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,11 +819,11 @@
       </c>
       <c r="B19" s="13" t="n">
         <f aca="false">SUM(B8:L8)</f>
-        <v>10</v>
+        <v>18.8235294117647</v>
       </c>
       <c r="C19" s="13" t="n">
         <f aca="false">(B19*40)/B10</f>
-        <v>40</v>
+        <v>18.8235294117647</v>
       </c>
       <c r="D19" s="14" t="n">
         <v>0</v>
@@ -773,11 +833,11 @@
       </c>
       <c r="F19" s="15" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>40</v>
+        <v>18.8235294117647</v>
       </c>
       <c r="G19" s="16" t="n">
         <f aca="false">((F19-F21)*50)/(F22-F21)+50</f>
-        <v>100</v>
+        <v>74.1874527588813</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,6 +845,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="13" t="n">
+        <f aca="false">SUM(B9:M9)</f>
         <v>0</v>
       </c>
       <c r="C20" s="13" t="n">
@@ -808,7 +869,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18" t="n">
         <f aca="false">MIN(F13:F19)</f>
@@ -817,11 +878,11 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22" s="18" t="n">
         <f aca="false">MAX(F13:F19)</f>
-        <v>40</v>
+        <v>38.9117647058824</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">H 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 08</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -68,10 +74,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0\٫00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0\٫00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -194,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,6 +226,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,7 +238,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -361,7 +372,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.55"/>
@@ -385,8 +396,12 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -413,8 +428,12 @@
       <c r="E2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -441,8 +460,12 @@
       <c r="E3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>9.5</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -469,8 +492,12 @@
       <c r="E4" s="4" t="n">
         <v>9.5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>9</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -496,8 +523,12 @@
       <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -524,8 +555,12 @@
       <c r="E6" s="4" t="n">
         <v>9.5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.5</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -552,8 +587,12 @@
       <c r="E7" s="4" t="n">
         <v>9.5</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>8.5</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -580,8 +619,12 @@
       <c r="E8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -596,293 +639,300 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <f aca="false">((14/17)*10)/2</f>
+        <v>4.11764705882353</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="14" t="n">
         <f aca="false">SUM(B2:L2)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="14" t="n">
         <f aca="false">(B13*40)/B10</f>
         <v>0</v>
       </c>
-      <c r="D13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15" t="n">
+      <c r="D13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16" t="n">
         <f aca="false">C13+D13+E13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="17" t="n">
         <f aca="false">((F13-F21)*50)/(F22-F21)+50</f>
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="14" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>37.5588235294118</v>
-      </c>
-      <c r="C14" s="13" t="n">
+        <v>56.0588235294118</v>
+      </c>
+      <c r="C14" s="14" t="n">
         <f aca="false">(B14*40)/B10</f>
-        <v>37.5588235294118</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="n">
+        <v>37.3725490196078</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>37.5588235294118</v>
-      </c>
-      <c r="G14" s="16" t="n">
+        <v>37.3725490196078</v>
+      </c>
+      <c r="G14" s="17" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>98.2615268329554</v>
+        <v>98.4002031488065</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="14" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>38.9117647058824</v>
-      </c>
-      <c r="C15" s="13" t="n">
+        <v>57.9117647058824</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <f aca="false">(B15*40)/B10</f>
-        <v>38.9117647058824</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15" t="n">
+        <v>38.6078431372549</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>38.9117647058824</v>
-      </c>
-      <c r="G15" s="16" t="n">
+        <v>38.6078431372549</v>
+      </c>
+      <c r="G15" s="17" t="n">
         <f aca="false">((F15-F21)*50)/(F22-F21)+50</f>
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="14" t="n">
         <f aca="false">SUM(B5:L5)</f>
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="14" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>20</v>
-      </c>
-      <c r="D16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15" t="n">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>20</v>
-      </c>
-      <c r="G16" s="16" t="n">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="G16" s="17" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
-        <v>75.6991685563114</v>
+        <v>67.2676485525648</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="14" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>36.3235294117647</v>
-      </c>
-      <c r="C17" s="13" t="n">
+        <v>54.8235294117647</v>
+      </c>
+      <c r="C17" s="14" t="n">
         <f aca="false">(B17*40)/B10</f>
-        <v>36.3235294117647</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15" t="n">
+        <v>36.5490196078431</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>36.3235294117647</v>
-      </c>
-      <c r="G17" s="16" t="n">
+        <v>36.5490196078431</v>
+      </c>
+      <c r="G17" s="17" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
-        <v>96.6742252456538</v>
+        <v>97.3336719146775</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="14" t="n">
         <f aca="false">SUM(B7:L7)</f>
-        <v>34</v>
-      </c>
-      <c r="C18" s="13" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C18" s="14" t="n">
         <f aca="false">(B18*40)/B10</f>
-        <v>34</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>34</v>
-      </c>
-      <c r="G18" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="G18" s="17" t="n">
         <f aca="false">((F18-F21)*50)/(F22-F21)+50</f>
-        <v>93.6885865457294</v>
+        <v>95.3275774504825</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="14" t="n">
         <f aca="false">SUM(B8:L8)</f>
-        <v>18.8235294117647</v>
-      </c>
-      <c r="C19" s="13" t="n">
+        <v>28.8235294117647</v>
+      </c>
+      <c r="C19" s="14" t="n">
         <f aca="false">(B19*40)/B10</f>
-        <v>18.8235294117647</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="n">
+        <v>19.2156862745098</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>18.8235294117647</v>
-      </c>
-      <c r="G19" s="16" t="n">
+        <v>19.2156862745098</v>
+      </c>
+      <c r="G19" s="17" t="n">
         <f aca="false">((F19-F21)*50)/(F22-F21)+50</f>
-        <v>74.1874527588813</v>
+        <v>74.8857287963433</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="14" t="n">
         <f aca="false">SUM(B9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13" t="n">
+        <v>17.1176470588235</v>
+      </c>
+      <c r="C20" s="14" t="n">
         <f aca="false">(B20*40)/B10</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15" t="n">
+        <v>11.4117647058824</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="16" t="n">
+        <v>11.4117647058824</v>
+      </c>
+      <c r="G20" s="17" t="n">
         <f aca="false">((F20-F21)*50)/(F22-F21)+50</f>
-        <v>50</v>
+        <v>64.7790756729304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="18" t="n">
+      <c r="E21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="19" t="n">
         <f aca="false">MIN(F13:F19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18" t="n">
+      <c r="E22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19" t="n">
         <f aca="false">MAX(F13:F19)</f>
-        <v>38.9117647058824</v>
+        <v>38.6078431372549</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,7 +461,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>9.5</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>5</v>
@@ -734,11 +734,11 @@
       </c>
       <c r="B14" s="14" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>56.0588235294118</v>
+        <v>57.0588235294118</v>
       </c>
       <c r="C14" s="14" t="n">
         <f aca="false">(B14*40)/B10</f>
-        <v>37.3725490196078</v>
+        <v>38.0392156862745</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>0</v>
@@ -748,11 +748,11 @@
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>37.3725490196078</v>
+        <v>38.0392156862745</v>
       </c>
       <c r="G14" s="17" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>98.4002031488065</v>
+        <v>99.2635855764347</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +806,7 @@
       </c>
       <c r="G16" s="17" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
-        <v>67.2676485525648</v>
+        <v>67.2676485525647</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,11 +869,11 @@
       </c>
       <c r="B19" s="14" t="n">
         <f aca="false">SUM(B8:L8)</f>
-        <v>28.8235294117647</v>
+        <v>38.8235294117647</v>
       </c>
       <c r="C19" s="14" t="n">
         <f aca="false">(B19*40)/B10</f>
-        <v>19.2156862745098</v>
+        <v>25.8823529411765</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>0</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="F19" s="16" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>19.2156862745098</v>
+        <v>25.8823529411765</v>
       </c>
       <c r="G19" s="17" t="n">
         <f aca="false">((F19-F21)*50)/(F22-F21)+50</f>
-        <v>74.8857287963433</v>
+        <v>83.5195530726257</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,7 +914,7 @@
       </c>
       <c r="G20" s="17" t="n">
         <f aca="false">((F20-F21)*50)/(F22-F21)+50</f>
-        <v>64.7790756729304</v>
+        <v>64.7790756729305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="G19" s="17" t="n">
         <f aca="false">((F19-F21)*50)/(F22-F21)+50</f>
-        <v>83.5195530726257</v>
+        <v>83.5195530726258</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="19" t="n">
-        <f aca="false">MIN(F13:F19)</f>
+        <f aca="false">MIN(F13:F20)</f>
         <v>0</v>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="19" t="n">
-        <f aca="false">MAX(F13:F19)</f>
+        <f aca="false">MAX(F13:F20)</f>
         <v>38.6078431372549</v>
       </c>
     </row>

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,14 +714,14 @@
         <v>0</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="15" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="16" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="17" t="n">
         <f aca="false">((F13-F21)*50)/(F22-F21)+50</f>
@@ -741,18 +741,18 @@
         <v>38.0392156862745</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E14" s="15" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>38.0392156862745</v>
+        <v>46.5392156862745</v>
       </c>
       <c r="G14" s="17" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>99.2635855764347</v>
+        <v>72.9941706412295</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,18 +768,18 @@
         <v>38.6078431372549</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="E15" s="15" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="16" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>38.6078431372549</v>
+        <v>48.1078431372549</v>
       </c>
       <c r="G15" s="17" t="n">
         <f aca="false">((F15-F21)*50)/(F22-F21)+50</f>
-        <v>100</v>
+        <v>73.8420773714891</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,18 +795,18 @@
         <v>13.3333333333333</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="15" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>13.3333333333333</v>
+        <v>20.3333333333333</v>
       </c>
       <c r="G16" s="17" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
-        <v>67.2676485525647</v>
+        <v>58.8288288288288</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,18 +822,18 @@
         <v>36.5490196078431</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F17" s="16" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>36.5490196078431</v>
+        <v>92.0490196078431</v>
       </c>
       <c r="G17" s="17" t="n">
         <f aca="false">((F17-F21)*50)/(F22-F21)+50</f>
-        <v>97.3336719146775</v>
+        <v>97.5940646528882</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,18 +849,18 @@
         <v>35</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F18" s="16" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>35</v>
+        <v>96.5</v>
       </c>
       <c r="G18" s="17" t="n">
         <f aca="false">((F18-F21)*50)/(F22-F21)+50</f>
-        <v>95.3275774504825</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,18 +876,18 @@
         <v>25.8823529411765</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="E19" s="15" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="16" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>25.8823529411765</v>
+        <v>35.3823529411765</v>
       </c>
       <c r="G19" s="17" t="n">
         <f aca="false">((F19-F21)*50)/(F22-F21)+50</f>
-        <v>83.5195530726258</v>
+        <v>66.9634340222576</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,18 +903,18 @@
         <v>11.4117647058824</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="16" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>11.4117647058824</v>
+        <v>19.4117647058824</v>
       </c>
       <c r="G20" s="17" t="n">
         <f aca="false">((F20-F21)*50)/(F22-F21)+50</f>
-        <v>64.7790756729305</v>
+        <v>58.3306836248013</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +923,7 @@
       </c>
       <c r="F21" s="19" t="n">
         <f aca="false">MIN(F13:F20)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,7 +932,7 @@
       </c>
       <c r="F22" s="19" t="n">
         <f aca="false">MAX(F13:F20)</f>
-        <v>38.6078431372549</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -879,15 +879,15 @@
         <v>9.5</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F19" s="16" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>35.3823529411765</v>
+        <v>90.3823529411765</v>
       </c>
       <c r="G19" s="17" t="n">
         <f aca="false">((F19-F21)*50)/(F22-F21)+50</f>
-        <v>66.9634340222576</v>
+        <v>96.6931637519873</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,13 +521,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -788,25 +788,25 @@
       </c>
       <c r="B16" s="14" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C16" s="14" t="n">
         <f aca="false">(B16*40)/B10</f>
-        <v>13.3333333333333</v>
+        <v>31.3333333333333</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>7</v>
       </c>
       <c r="E16" s="15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>20.3333333333333</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="G16" s="17" t="n">
         <f aca="false">((F16-F21)*50)/(F22-F21)+50</f>
-        <v>58.8288288288288</v>
+        <v>92.8828828828829</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -744,15 +744,15 @@
         <v>8.5</v>
       </c>
       <c r="E14" s="15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>46.5392156862745</v>
+        <v>86.5392156862745</v>
       </c>
       <c r="G14" s="17" t="n">
         <f aca="false">((F14-F21)*50)/(F22-F21)+50</f>
-        <v>72.9941706412295</v>
+        <v>94.6157922628511</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/113/113.xlsx
+++ b/113/113.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
